--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerAdministrativoLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerAdministrativoLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -294,10 +294,10 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+    <t>Id temporal necesario para identificar el recurso</t>
+  </si>
+  <si>
+    <t>El Id que envíe desde la aplicación es temporal, el definitivo es creado por el servidor</t>
   </si>
   <si>
     <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
@@ -3124,13 +3124,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>77</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerAdministrativoLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerAdministrativoLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerAdministrativoLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -435,7 +435,7 @@
     <t>Extension</t>
   </si>
   <si>
-    <t>Extensión para almacenar el sexo biologico del paciente</t>
+    <t>Extensión para almacenar el sexo biológico del profesional</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -462,7 +462,7 @@
 </t>
   </si>
   <si>
-    <t>Identidad De Genero</t>
+    <t>Identidad De Género</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -515,7 +515,7 @@
     <t>Identificación de los prestadores</t>
   </si>
   <si>
-    <t>El identificador oficial para cada prestador en Chile es el Registro Nacional de Prestadores Institucionales (NRPI). Ademas existe el identificador nacional chileno, el Registro Único Nacional (RUN). Y por ultimo puede ingresar un numero de pasaporte y un ID extra para cada prestador.</t>
+    <t>El identificador oficial para cada prestador en Chile es el Registro Nacional de Prestadores Institucionales (NRPI). Además, existe el identificador nacional chileno, el Registro Único Nacional (RUN). Y por último puede ingresar un número de pasaporte y un ID extra para cada prestador.</t>
   </si>
   <si>
     <t>Often, specific identities are assigned for the agent.</t>
@@ -883,7 +883,7 @@
     <t>Define la url del endPoint a la cual apunta la API, para validar el RUN</t>
   </si>
   <si>
-    <t>Se define el el endPoint al cual debe apuntar a la API, con el fin de validar que el numero de RUN ingresado exista y que sea correcto. Por momento se usará la url = "http://api_run/run"</t>
+    <t>Se define el el endPoint al cual debe apuntar a la API, con el fin de validar que el número de RUN ingresado exista y que sea correcto. Por momento se usará la url = "http://api_run/run"</t>
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
@@ -1314,7 +1314,7 @@
     <t>Uso del nombre del prestador</t>
   </si>
   <si>
-    <t>Este es el uso que se le da al nombre del Prestador considerando que puede ser nombre oficial, temporal, seudonimo, entre otros, Pero por motivos legales este uso es Oficial</t>
+    <t>Este es el uso que se le da al nombre del Prestador considerando que puede ser nombre oficial, temporal, seudónimo, entre otros, Pero por motivos legales este uso es Oficial</t>
   </si>
   <si>
     <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
@@ -1375,7 +1375,7 @@
     <t>Primer apellido del administrativo</t>
   </si>
   <si>
-    <t>Se debe ingresar el primer apellido, segun indica su identificacion personal</t>
+    <t>Se debe ingresar el primer apellido, según indica su identificacion personal</t>
   </si>
   <si>
     <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
@@ -1842,14 +1842,14 @@
     <t>Certificados, títulos y/o Especialidad(es) obtenidas por el Prestador</t>
   </si>
   <si>
-    <t>Certificados, titulos y/o especialidades que el Prestador pueda validar</t>
+    <t>Certificados, títulos y/o especialidades que el Prestador pueda validar</t>
   </si>
   <si>
     <t xml:space="preserve">value:identifier.value}
 </t>
   </si>
   <si>
-    <t>Debido a que los profesisonales de la salud pueden tener titulo y ademas poseer especialidades, es que se ha realizado un slice, con el fin de poder diferenciarlos. El de Certificados tiene identifier.value el valor cert y el slice de especialidad el valor esp</t>
+    <t>Debido a que los profesionales de la salud pueden tener título y ademas poseer especialidades, es que se ha realizado un slice, con el fin de poder diferenciarlos. El de Certificados tiene identifier.value el valor cert y el slice de especialidad el valor esp</t>
   </si>
   <si>
     <t>CER?</t>
@@ -1959,7 +1959,7 @@
     <t>Especificación de los Títulos o Certificados Profesionales que tiene el Prestador</t>
   </si>
   <si>
-    <t>Listado de Títulos o Cetificados Profesionales que tiene el prestador. Solo se consideran aquellos que pueden ser demostrados en consulta a la casa de estudios pertinente</t>
+    <t>Listado de Títulos o Certificados Profesionales que tiene el prestador. Solo se consideran aquellos que pueden ser demostrados en consulta a la casa de estudios pertinente</t>
   </si>
   <si>
     <t>Practitioner.qualification:TituloProfesional.id</t>
@@ -2076,10 +2076,10 @@
     <t>Practitioner.qualification.code.coding.system</t>
   </si>
   <si>
-    <t>El sistema sobre el cual se verificarán los titulos o certificados de los Prestadores</t>
-  </si>
-  <si>
-    <t>La url sobre la cual se encuentra el endPoint para el acceso a  los códigos de titulos y/o certificados de prestadores. El perfil especifica que se debe usar la siguiente url:  "https://api.minsal.cl/v1/catalogos/profesiones/"</t>
+    <t>El sistema sobre el cual se verificarán los títulos o certificados de los Prestadores</t>
+  </si>
+  <si>
+    <t>La url sobre la cual se encuentra el endPoint para el acceso a  los códigos de títulos y/o certificados de prestadores. El perfil especifica que se debe usar la siguiente url:  "https://api.minsal.cl/v1/catalogos/profesiones/"</t>
   </si>
   <si>
     <t>Practitioner.qualification:TituloProfesional.code.coding.version</t>
@@ -2094,10 +2094,10 @@
     <t>Practitioner.qualification.code.coding.code</t>
   </si>
   <si>
-    <t>Nombre del titulo o certificado agregado</t>
-  </si>
-  <si>
-    <t>Nombre del titulo o certificado agregado. Agregar un poco mas de informacion acerca del item que se esta agregando.</t>
+    <t>Nombre del título o certificado agregado</t>
+  </si>
+  <si>
+    <t>Nombre del título o certificado agregado. Agregar un poco más de información acerca del item que se está agregando.</t>
   </si>
   <si>
     <t>Practitioner.qualification:TituloProfesional.code.coding.display</t>
@@ -2127,7 +2127,7 @@
     <t>Practitioner.qualification:TituloProfesional.issuer</t>
   </si>
   <si>
-    <t>Organizacion que entrega el certificado o título</t>
+    <t>Organización que entrega el certificado o título</t>
   </si>
   <si>
     <t>Practitioner.qualification:TituloProfesional.issuer.id</t>
@@ -2219,10 +2219,10 @@
     <t>Practitioner.qualification.issuer.display</t>
   </si>
   <si>
-    <t>Nombre de la organizacion que entrega certificado o título</t>
-  </si>
-  <si>
-    <t>Nombre de la organizacion que entrega el certificado o título válido para ejercer como prestdor. En este elemento solo se puede agregar texto libre</t>
+    <t>Nombre de la organización que entrega certificado o título</t>
+  </si>
+  <si>
+    <t>Nombre de la organización que entrega el certificado o título válido para ejercer como prestdor. En este elemento solo se puede agregar texto libre</t>
   </si>
   <si>
     <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
@@ -2324,7 +2324,7 @@
     <t>Nombre de la especialidad</t>
   </si>
   <si>
-    <t>Nombre la especialidad agregada. Agregar un poco mas de informacion acerca del item que se esta agregando.</t>
+    <t>Nombre la especialidad agregada. Agregar un poco más de información acerca del item que se está agregando.</t>
   </si>
   <si>
     <t>Practitioner.qualification:EspecialidadMedica.code.coding.userSelected</t>
@@ -2450,7 +2450,7 @@
     <t>Nombre de la subespecialidad</t>
   </si>
   <si>
-    <t>Nombre la subespecialidad agregada. Agregar un poco mas de informacion acerca del item que se esta agregando.</t>
+    <t>Nombre la subespecialidad agregada. Agregar un poco más de información acerca del item que se está agregando.</t>
   </si>
   <si>
     <t>Practitioner.qualification:Subespecialidad.code.coding.userSelected</t>
@@ -2864,7 +2864,7 @@
     <col min="26" max="26" width="73.1640625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.12109375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="225.41796875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="224.48046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerAdministrativoLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerAdministrativoLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerAdministrativoLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-PractitionerAdministrativoLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2836,17 +2836,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.80078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.01953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.24609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.2421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.8671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.74609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2855,26 +2855,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.1640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.12109375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="224.48046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.8671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.17578125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="200.65234375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="54.296875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="50.25390625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="48.96875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="89.40625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="45.9296875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
